--- a/HIAA QC.xlsx
+++ b/HIAA QC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs.sharepoint.com/sites/RNQ_Departmental_Filestores/Biochemistry QC Files/Biochemistry QC/Manual Excel QC/HPLC QC Logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{DEB47D3D-20B8-47D3-9040-FD61F6CC186E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9488D516-98F7-4887-B69E-576FB9871C69}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{DEB47D3D-20B8-47D3-9040-FD61F6CC186E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CE32256-F75A-47D0-998B-E28C2354724F}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="739" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,24 +818,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -844,6 +826,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -854,7 +839,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1223,7 +1223,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -13797,76 +13797,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="65" t="s">
+      <c r="AB1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="65" t="s">
+      <c r="AC1" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="57" t="s">
+      <c r="AD1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="67" t="s">
+      <c r="AE1" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="61" t="s">
+      <c r="AG1" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="63"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="57"/>
     </row>
     <row r="2" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="60"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="67"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="61"/>
       <c r="AG2" s="11" t="s">
         <v>7</v>
       </c>
@@ -15906,6 +15906,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="F1:F2"/>
@@ -15914,14 +15922,6 @@
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15929,14 +15929,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bbae4d8a-5369-4991-91d8-007229455ff9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="184dda3b-6708-4ad8-b920-a09dda3c5f6c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16135,21 +16133,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bbae4d8a-5369-4991-91d8-007229455ff9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="184dda3b-6708-4ad8-b920-a09dda3c5f6c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B93D66C-3DE9-428B-88BA-02C6509A78AF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E5D27BD-8292-4C81-9DAA-D38E4150EAB7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bbae4d8a-5369-4991-91d8-007229455ff9"/>
-    <ds:schemaRef ds:uri="184dda3b-6708-4ad8-b920-a09dda3c5f6c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16174,9 +16171,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E5D27BD-8292-4C81-9DAA-D38E4150EAB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B93D66C-3DE9-428B-88BA-02C6509A78AF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bbae4d8a-5369-4991-91d8-007229455ff9"/>
+    <ds:schemaRef ds:uri="184dda3b-6708-4ad8-b920-a09dda3c5f6c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/HIAA QC.xlsx
+++ b/HIAA QC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs.sharepoint.com/sites/RNQ_Departmental_Filestores/Biochemistry QC Files/Biochemistry QC/Manual Excel QC/HPLC QC Logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{DEB47D3D-20B8-47D3-9040-FD61F6CC186E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CE32256-F75A-47D0-998B-E28C2354724F}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{DEB47D3D-20B8-47D3-9040-FD61F6CC186E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4D84B53-6DD3-48B5-917F-31FB809BD039}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="739" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,6 +818,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -826,9 +844,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -839,22 +854,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1223,7 +1223,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -13797,76 +13797,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="60" t="s">
+      <c r="AB1" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="60" t="s">
+      <c r="AC1" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="62" t="s">
+      <c r="AD1" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="64" t="s">
+      <c r="AE1" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="55" t="s">
+      <c r="AG1" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="57"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="63"/>
     </row>
     <row r="2" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="67"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="61"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="60"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="66"/>
       <c r="AG2" s="11" t="s">
         <v>7</v>
       </c>
@@ -15906,6 +15906,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AE1:AE2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -15914,14 +15922,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15929,12 +15929,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bbae4d8a-5369-4991-91d8-007229455ff9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="184dda3b-6708-4ad8-b920-a09dda3c5f6c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16133,20 +16135,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bbae4d8a-5369-4991-91d8-007229455ff9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="184dda3b-6708-4ad8-b920-a09dda3c5f6c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E5D27BD-8292-4C81-9DAA-D38E4150EAB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B93D66C-3DE9-428B-88BA-02C6509A78AF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bbae4d8a-5369-4991-91d8-007229455ff9"/>
+    <ds:schemaRef ds:uri="184dda3b-6708-4ad8-b920-a09dda3c5f6c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16171,12 +16174,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B93D66C-3DE9-428B-88BA-02C6509A78AF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E5D27BD-8292-4C81-9DAA-D38E4150EAB7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bbae4d8a-5369-4991-91d8-007229455ff9"/>
-    <ds:schemaRef ds:uri="184dda3b-6708-4ad8-b920-a09dda3c5f6c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/HIAA QC.xlsx
+++ b/HIAA QC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs.sharepoint.com/sites/RNQ_Departmental_Filestores/Biochemistry QC Files/Biochemistry QC/Manual Excel QC/HPLC QC Logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{DEB47D3D-20B8-47D3-9040-FD61F6CC186E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4D84B53-6DD3-48B5-917F-31FB809BD039}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{DEB47D3D-20B8-47D3-9040-FD61F6CC186E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9F5DC7F-9589-4BED-8AF3-FBE61B18A5D6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="739" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="739" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="63530" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="78">
   <si>
     <t>Run</t>
   </si>
@@ -49,16 +49,46 @@
     <t>Operator</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Level 1</t>
   </si>
   <si>
     <t>Level 2</t>
   </si>
   <si>
+    <t>Comments</t>
+  </si>
+  <si>
     <t>SH</t>
+  </si>
+  <si>
+    <t>New Lot of IQC in use. Mean determined from just 2 runs. Will monitor</t>
+  </si>
+  <si>
+    <t>QC 1 (63531)</t>
+  </si>
+  <si>
+    <t>QC 2 (63532)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean </t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>New Lot of IQC seems to be deteriorating. Fresh QC made for next run. Run accepted as QC 2 ok and  EQA QC higher not low than previous.</t>
+  </si>
+  <si>
+    <t>Fresh bottle of QC</t>
+  </si>
+  <si>
+    <t>SH/JL</t>
+  </si>
+  <si>
+    <t>AS/HG</t>
   </si>
   <si>
     <t>X</t>
@@ -79,10 +109,16 @@
     <t>Mean</t>
   </si>
   <si>
-    <t>SD</t>
+    <t xml:space="preserve">QC 1 low again. Low level EQA run and performed well (see EQA tab). Shows it is a QC material problem. </t>
   </si>
   <si>
-    <t xml:space="preserve">Mean </t>
+    <t xml:space="preserve">SD </t>
+  </si>
+  <si>
+    <t>QC 1 (63511)</t>
+  </si>
+  <si>
+    <t>QC 2 (63512)</t>
   </si>
   <si>
     <t>PP</t>
@@ -101,6 +137,27 @@
   </si>
   <si>
     <t>New calibrator (made May 2024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New bottles of QC. Accepted as EQA and old QC ok. </t>
+  </si>
+  <si>
+    <t>AS/SH</t>
+  </si>
+  <si>
+    <t>JL/SH</t>
+  </si>
+  <si>
+    <t>New calibrator (made Oct 2024)</t>
+  </si>
+  <si>
+    <t>QC1 showed tailing, causing higher result. Other peaks look ok, so accepted.</t>
+  </si>
+  <si>
+    <t>Fresh QC</t>
+  </si>
+  <si>
+    <t>AS</t>
   </si>
   <si>
     <t>Distribution</t>
@@ -172,9 +229,6 @@
     <t>65-1</t>
   </si>
   <si>
-    <t xml:space="preserve">New bottles of QC. Accepted as EQA and old QC ok. </t>
-  </si>
-  <si>
     <t>65-2</t>
   </si>
   <si>
@@ -184,22 +238,10 @@
     <t>65-4</t>
   </si>
   <si>
-    <t>AS/SH</t>
-  </si>
-  <si>
-    <t>JL/SH</t>
-  </si>
-  <si>
-    <t>New calibrator (made Oct 2024)</t>
-  </si>
-  <si>
-    <t>QC1 showed tailing, causing higher result. Other peaks look ok, so accepted.</t>
+    <t>65-5</t>
   </si>
   <si>
     <t>65-6</t>
-  </si>
-  <si>
-    <t>65-5</t>
   </si>
   <si>
     <t>65-7</t>
@@ -220,52 +262,16 @@
     <t>65-12</t>
   </si>
   <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>Fresh QC</t>
-  </si>
-  <si>
     <t>No IS added. Area alone shows result approx. 77</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>QC 1 (63511)</t>
-  </si>
-  <si>
-    <t>QC 2 (63512)</t>
-  </si>
-  <si>
-    <t>QC 1 (63531)</t>
-  </si>
-  <si>
-    <t>QC 2 (63532)</t>
-  </si>
-  <si>
-    <t>New Lot of IQC in use. Mean determined from just 2 runs. Will monitor</t>
-  </si>
-  <si>
-    <t>New Lot of IQC seems to be deteriorating. Fresh QC made for next run. Run accepted as QC 2 ok and  EQA QC higher not low than previous.</t>
-  </si>
-  <si>
-    <t>Fresh bottle of QC</t>
-  </si>
-  <si>
-    <t>SH/JL</t>
-  </si>
-  <si>
-    <t>AS/HG</t>
   </si>
   <si>
     <t>295C</t>
   </si>
   <si>
-    <t xml:space="preserve">QC 1 low again. Low level EQA run and performed well (see EQA tab). Shows it is a QC material problem. </t>
+    <t>294C</t>
   </si>
   <si>
-    <t>294C</t>
+    <t>296A</t>
   </si>
 </sst>
 </file>
@@ -676,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -809,6 +815,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,24 +826,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -845,6 +836,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -854,7 +848,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1223,7 +1232,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1240,7 +1249,8 @@
     <col min="11" max="11" width="9.42578125" style="1" customWidth="1"/>
     <col min="12" max="23" width="9.140625" style="1"/>
     <col min="24" max="29" width="9.140625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="30" max="30" width="17.5703125" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1254,14 +1264,14 @@
         <v>2</v>
       </c>
       <c r="D1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="42" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>5</v>
       </c>
       <c r="F1" s="47"/>
       <c r="G1" s="45" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="22.5" x14ac:dyDescent="0.25">
@@ -1282,26 +1292,14 @@
       </c>
       <c r="F2" s="48"/>
       <c r="G2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
@@ -1320,38 +1318,21 @@
         <v>131.5</v>
       </c>
       <c r="F3" s="48"/>
-      <c r="R3" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" s="54"/>
+      <c r="R3" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="55"/>
       <c r="T3"/>
-      <c r="U3" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="V3" s="54"/>
-      <c r="X3" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="12" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z3" s="12" t="e">
-        <f>#REF!-(2*#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA3" s="12" t="e">
-        <f>#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB3" s="12" t="e">
-        <f>#REF!+(2*#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC3" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="U3" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="55"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
       <c r="AG3"/>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1371,42 +1352,27 @@
         <v>133.84</v>
       </c>
       <c r="F4" s="48"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
       <c r="R4" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S4" s="12">
         <v>12.38</v>
       </c>
       <c r="T4"/>
       <c r="U4" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="V4" s="12">
         <v>132.24</v>
       </c>
-      <c r="X4" s="11">
-        <v>29.5</v>
-      </c>
-      <c r="Y4" s="12" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z4" s="12" t="e">
-        <f>#REF!-(2*#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA4" s="12" t="e">
-        <f>#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB4" s="12" t="e">
-        <f>#REF!+(2*#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC4" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
       <c r="AG4"/>
     </row>
     <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1426,18 +1392,20 @@
         <v>134.30000000000001</v>
       </c>
       <c r="F5" s="48"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="R5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="12">
+        <v>11</v>
+      </c>
+      <c r="S5" s="52">
         <f>S4*0.1</f>
         <v>1.2380000000000002</v>
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="V5" s="12">
+        <v>11</v>
+      </c>
+      <c r="V5" s="52">
         <f>V4*0.05</f>
         <v>6.612000000000001</v>
       </c>
@@ -1460,28 +1428,28 @@
         <v>132.08000000000001</v>
       </c>
       <c r="F6" s="48"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="R6" s="13" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="S6" s="12">
         <f>S5/S4*100</f>
         <v>10</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="V6" s="12">
         <f>V5/V4*100</f>
         <v>5</v>
       </c>
-      <c r="X6" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="54"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="55"/>
       <c r="AG6"/>
     </row>
     <row r="7" spans="1:33" ht="33.75" x14ac:dyDescent="0.25">
@@ -1502,26 +1470,14 @@
       </c>
       <c r="F7" s="48"/>
       <c r="G7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="X7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC7" s="11" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
     </row>
     <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
@@ -1541,31 +1497,14 @@
       </c>
       <c r="F8" s="48"/>
       <c r="G8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="X8" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="12" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z8" s="12" t="e">
-        <f>#REF!-(2*#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA8" s="12" t="e">
-        <f>#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB8" s="12" t="e">
-        <f>#REF!+(2*#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC8" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
     </row>
     <row r="9" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
@@ -1587,29 +1526,12 @@
       <c r="I9" s="46"/>
       <c r="J9" s="46"/>
       <c r="T9"/>
-      <c r="X9" s="11">
-        <v>29.5</v>
-      </c>
-      <c r="Y9" s="12" t="e">
-        <f>#REF!-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z9" s="12" t="e">
-        <f>#REF!-(2*#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA9" s="12" t="e">
-        <f>#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB9" s="12" t="e">
-        <f>#REF!+(2*#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC9" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
     </row>
     <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
@@ -1619,7 +1541,7 @@
         <v>45777</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D10" s="19">
         <v>10.84</v>
@@ -1638,7 +1560,7 @@
         <v>45777</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D11" s="19">
         <v>11.25</v>
@@ -1648,14 +1570,14 @@
       </c>
       <c r="F11" s="48"/>
       <c r="M11" s="51"/>
-      <c r="X11" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="54"/>
+      <c r="X11" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="55"/>
     </row>
     <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="21">
@@ -1665,7 +1587,7 @@
         <v>45792</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D12" s="19">
         <v>9.39</v>
@@ -1676,22 +1598,25 @@
       <c r="F12" s="48"/>
       <c r="M12" s="51"/>
       <c r="X12" s="11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AA12" s="11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD12" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="AC12" s="11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1702,7 +1627,7 @@
         <v>45792</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D13" s="19">
         <v>8.6999999999999993</v>
@@ -1736,6 +1661,10 @@
         <f>S4</f>
         <v>12.38</v>
       </c>
+      <c r="AD13" s="1">
+        <f>AC13*0.05</f>
+        <v>0.61900000000000011</v>
+      </c>
     </row>
     <row r="14" spans="1:33" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
@@ -1755,7 +1684,7 @@
       </c>
       <c r="F14" s="48"/>
       <c r="G14" s="3" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="X14" s="11">
         <v>50</v>
@@ -1818,16 +1747,16 @@
       </c>
       <c r="F16" s="48"/>
       <c r="S16" s="33"/>
-      <c r="X16" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="54"/>
-    </row>
-    <row r="17" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="55"/>
+    </row>
+    <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>37.5</v>
       </c>
@@ -1846,25 +1775,28 @@
       <c r="F17" s="48"/>
       <c r="S17" s="33"/>
       <c r="X17" s="11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Z17" s="11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AA17" s="11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB17" s="11" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AC17" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>38</v>
       </c>
@@ -1906,8 +1838,12 @@
         <f>V4</f>
         <v>132.24</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD18" s="1">
+        <f>AC18*0.05</f>
+        <v>6.612000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>38.5</v>
       </c>
@@ -1949,25 +1885,45 @@
         <v>132.24</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
+    <row r="20" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21">
+        <v>39</v>
+      </c>
+      <c r="B20" s="16">
+        <v>45868</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="19">
+        <v>15.01</v>
+      </c>
+      <c r="E20" s="20">
+        <v>135.49</v>
+      </c>
       <c r="F20" s="49"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
+    <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21">
+        <v>39.5</v>
+      </c>
+      <c r="B21" s="16">
+        <v>45868</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="19">
+        <v>15.2</v>
+      </c>
+      <c r="E21" s="20">
+        <v>137.4</v>
+      </c>
       <c r="F21" s="49"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21"/>
       <c r="B22" s="16"/>
       <c r="C22" s="4"/>
@@ -1976,7 +1932,7 @@
       <c r="F22" s="49"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="16"/>
       <c r="C23" s="4"/>
@@ -1986,7 +1942,7 @@
       <c r="G23" s="9"/>
       <c r="N23"/>
     </row>
-    <row r="24" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="16"/>
       <c r="C24" s="4"/>
@@ -1996,7 +1952,7 @@
       <c r="G24" s="9"/>
       <c r="N24"/>
     </row>
-    <row r="25" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="16"/>
       <c r="C25" s="4"/>
@@ -2006,7 +1962,7 @@
       <c r="G25" s="9"/>
       <c r="N25" s="14"/>
     </row>
-    <row r="26" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21"/>
       <c r="B26" s="16"/>
       <c r="C26" s="4"/>
@@ -2015,7 +1971,7 @@
       <c r="F26" s="49"/>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21"/>
       <c r="B27" s="16"/>
       <c r="C27" s="4"/>
@@ -2024,7 +1980,7 @@
       <c r="F27" s="49"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21"/>
       <c r="B28" s="16"/>
       <c r="C28" s="4"/>
@@ -2033,7 +1989,7 @@
       <c r="F28" s="49"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21"/>
       <c r="B29" s="16"/>
       <c r="C29" s="4"/>
@@ -2042,7 +1998,7 @@
       <c r="F29" s="49"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="16"/>
       <c r="C30" s="4"/>
@@ -2051,7 +2007,7 @@
       <c r="F30" s="49"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" s="16"/>
       <c r="C31" s="4"/>
@@ -2060,7 +2016,7 @@
       <c r="F31" s="49"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
       <c r="B32" s="16"/>
       <c r="C32" s="4"/>
@@ -7294,9 +7250,9 @@
   <dimension ref="A1:AG1221"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G75" sqref="G75"/>
+      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -7327,14 +7283,14 @@
         <v>2</v>
       </c>
       <c r="D1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="42" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>5</v>
       </c>
       <c r="F1" s="47"/>
       <c r="G1" s="45" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7355,22 +7311,22 @@
       </c>
       <c r="F2" s="48"/>
       <c r="X2" s="11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7391,15 +7347,15 @@
       </c>
       <c r="F3" s="48"/>
       <c r="G3" s="9"/>
-      <c r="R3" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="S3" s="54"/>
+      <c r="R3" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="55"/>
       <c r="T3"/>
-      <c r="U3" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="54"/>
+      <c r="U3" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="V3" s="55"/>
       <c r="X3" s="11">
         <v>0</v>
       </c>
@@ -7443,15 +7399,17 @@
       </c>
       <c r="F4" s="48"/>
       <c r="G4" s="10"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
       <c r="R4" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S4" s="12">
         <v>14.6</v>
       </c>
       <c r="T4"/>
       <c r="U4" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="V4" s="12">
         <v>132.24</v>
@@ -7499,8 +7457,10 @@
       </c>
       <c r="F5" s="49"/>
       <c r="G5" s="9"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="R5" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S5" s="12">
         <f>S4*0.1</f>
@@ -7508,7 +7468,7 @@
       </c>
       <c r="T5" s="14"/>
       <c r="U5" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V5" s="12">
         <f>V4*0.05</f>
@@ -7524,7 +7484,7 @@
         <v>45336</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D6" s="19">
         <v>11.956</v>
@@ -7534,28 +7494,30 @@
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="10"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
       <c r="R6" s="13" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="S6" s="12">
         <f>S5/S4*100</f>
         <v>10</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="V6" s="12">
         <f>V5/V4*100</f>
         <v>5</v>
       </c>
-      <c r="X6" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
-      <c r="AA6" s="53"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="54"/>
+      <c r="X6" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="55"/>
       <c r="AG6"/>
     </row>
     <row r="7" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7566,7 +7528,7 @@
         <v>45336</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D7" s="19">
         <v>11.8</v>
@@ -7577,22 +7539,22 @@
       <c r="F7" s="49"/>
       <c r="G7" s="10"/>
       <c r="X7" s="11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Y7" s="11" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AA7" s="11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB7" s="11" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AC7" s="11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7613,7 +7575,7 @@
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="X8" s="11">
         <v>0</v>
@@ -7657,7 +7619,7 @@
       </c>
       <c r="F9" s="49"/>
       <c r="G9" s="10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I9" s="46"/>
       <c r="J9" s="46"/>
@@ -7703,7 +7665,7 @@
       </c>
       <c r="F10" s="49"/>
       <c r="G10" s="10" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7724,16 +7686,16 @@
       </c>
       <c r="F11" s="49"/>
       <c r="G11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="X11" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="54"/>
+        <v>30</v>
+      </c>
+      <c r="X11" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="55"/>
     </row>
     <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
@@ -7753,25 +7715,25 @@
       </c>
       <c r="F12" s="49"/>
       <c r="G12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="X12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="11" t="s">
-        <v>9</v>
-      </c>
       <c r="AA12" s="11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB12" s="11" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AC12" s="11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7792,7 +7754,7 @@
       </c>
       <c r="F13" s="49"/>
       <c r="G13" s="10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
@@ -7901,14 +7863,14 @@
       <c r="F16" s="49"/>
       <c r="G16" s="9"/>
       <c r="S16" s="33"/>
-      <c r="X16" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="54"/>
+      <c r="X16" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="55"/>
     </row>
     <row r="17" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
@@ -7930,22 +7892,22 @@
       <c r="G17" s="9"/>
       <c r="S17" s="33"/>
       <c r="X17" s="11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Y17" s="11" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Z17" s="11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AA17" s="11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB17" s="11" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AC17" s="11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8089,7 +8051,7 @@
       </c>
       <c r="F22" s="49"/>
       <c r="G22" s="10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8341,7 +8303,7 @@
       </c>
       <c r="F35" s="49"/>
       <c r="G35" s="9" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8409,7 +8371,7 @@
         <v>45555</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D39" s="19">
         <v>14.5</v>
@@ -8428,7 +8390,7 @@
         <v>45555</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D40" s="19">
         <v>15.63</v>
@@ -8485,7 +8447,7 @@
         <v>45581</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D43" s="19">
         <v>15.526</v>
@@ -8504,7 +8466,7 @@
         <v>45581</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D44" s="19">
         <v>15.185</v>
@@ -8523,7 +8485,7 @@
         <v>45595</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D45" s="19">
         <v>14.98</v>
@@ -8533,7 +8495,7 @@
       </c>
       <c r="F45" s="49"/>
       <c r="G45" s="9" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
@@ -8544,7 +8506,7 @@
         <v>45595</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D46" s="19">
         <v>17.149999999999999</v>
@@ -8554,7 +8516,7 @@
       </c>
       <c r="F46" s="49"/>
       <c r="G46" s="9" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="12" x14ac:dyDescent="0.2">
@@ -8565,7 +8527,7 @@
         <v>45609</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D47" s="19">
         <v>13.18</v>
@@ -8575,7 +8537,7 @@
       </c>
       <c r="F47" s="49"/>
       <c r="G47" s="9" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="12" x14ac:dyDescent="0.2">
@@ -8586,7 +8548,7 @@
         <v>45609</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D48" s="19">
         <v>13.19</v>
@@ -8605,7 +8567,7 @@
         <v>45624</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D49" s="19">
         <v>12.754</v>
@@ -8624,7 +8586,7 @@
         <v>45624</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D50" s="19">
         <v>13.022</v>
@@ -13787,8 +13749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424982ED-1FC9-4883-A8F5-586FF0BBD321}">
   <dimension ref="A1:AL49"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13797,96 +13759,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="58"/>
+    </row>
+    <row r="2" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="68"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="62"/>
+      <c r="AG2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="AL2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB1" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE1" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="63"/>
-    </row>
-    <row r="2" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="60"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="66"/>
-      <c r="AG2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL2" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21">
         <v>1</v>
       </c>
@@ -13897,21 +13859,21 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E3" s="19">
         <v>27.4</v>
       </c>
       <c r="F3" s="24">
-        <f>VLOOKUP(D3,$AB$3:$AE$16,2,FALSE)</f>
+        <f>VLOOKUP(D3,$AB$3:$AE$31,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G3" s="24">
-        <f>VLOOKUP(D3,$AB$3:$AE$16,3,FALSE)</f>
+        <f>VLOOKUP(D3,$AB$3:$AE$31,3,FALSE)</f>
         <v>29.773866666666663</v>
       </c>
       <c r="H3" s="24">
-        <f>VLOOKUP(D3,$AB$3:$AE$16,4,FALSE)</f>
+        <f>VLOOKUP(D3,$AB$3:$AE$31,4,FALSE)</f>
         <v>27.474939999999997</v>
       </c>
       <c r="I3" s="22">
@@ -13924,7 +13886,7 @@
       </c>
       <c r="K3" s="3"/>
       <c r="AB3" s="22" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="AC3" s="22"/>
       <c r="AD3" s="23">
@@ -13956,7 +13918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
         <v>2</v>
       </c>
@@ -13967,21 +13929,21 @@
         <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E4" s="19">
         <v>28.6</v>
       </c>
-      <c r="F4" s="25">
-        <f t="shared" ref="F4:F20" si="0">VLOOKUP(D4,$AB$3:$AE$16,2,FALSE)</f>
+      <c r="F4" s="24">
+        <f t="shared" ref="F4:F49" si="0">VLOOKUP(D4,$AB$3:$AE$31,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="22">
-        <f t="shared" ref="G4:G20" si="1">VLOOKUP(D4,$AB$3:$AE$16,3,FALSE)</f>
+      <c r="G4" s="24">
+        <f t="shared" ref="G4:G49" si="1">VLOOKUP(D4,$AB$3:$AE$31,3,FALSE)</f>
         <v>29.773866666666663</v>
       </c>
-      <c r="H4" s="25">
-        <f t="shared" ref="H4:H20" si="2">VLOOKUP(D4,$AB$3:$AE$16,4,FALSE)</f>
+      <c r="H4" s="24">
+        <f t="shared" ref="H4:H49" si="2">VLOOKUP(D4,$AB$3:$AE$31,4,FALSE)</f>
         <v>27.474939999999997</v>
       </c>
       <c r="I4" s="25">
@@ -13994,7 +13956,7 @@
       </c>
       <c r="K4" s="10"/>
       <c r="AB4" s="23" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="AC4" s="23"/>
       <c r="AD4" s="23"/>
@@ -14022,7 +13984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21">
         <v>3</v>
       </c>
@@ -14030,23 +13992,23 @@
         <v>45336</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E5" s="19">
         <v>253.9</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <f t="shared" si="0"/>
         <v>271.10000000000002</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="24">
         <f t="shared" si="1"/>
         <v>266.18099999999998</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <f t="shared" si="2"/>
         <v>268.529</v>
       </c>
@@ -14060,7 +14022,7 @@
       </c>
       <c r="K5" s="10"/>
       <c r="AB5" s="23" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AC5" s="23">
         <v>271.10000000000002</v>
@@ -14072,7 +14034,7 @@
         <v>268.529</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <v>4</v>
       </c>
@@ -14083,20 +14045,20 @@
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="E6" s="19">
         <v>285.89999999999998</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <f t="shared" si="0"/>
         <v>271.10000000000002</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <f t="shared" si="1"/>
         <v>266.18099999999998</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="24">
         <f t="shared" si="2"/>
         <v>268.529</v>
       </c>
@@ -14110,7 +14072,7 @@
       </c>
       <c r="K6" s="10"/>
       <c r="AB6" s="23" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="AC6" s="23">
         <v>139.19999999999999</v>
@@ -14122,7 +14084,7 @@
         <v>159.69499999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>5</v>
       </c>
@@ -14133,20 +14095,20 @@
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E7" s="19">
         <v>139.1</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <f t="shared" si="0"/>
         <v>139.19999999999999</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <f t="shared" si="1"/>
         <v>147.36000000000001</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <f t="shared" si="2"/>
         <v>159.69499999999999</v>
       </c>
@@ -14160,7 +14122,7 @@
       </c>
       <c r="K7" s="10"/>
       <c r="AB7" s="23" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="AC7" s="23">
         <v>83.1</v>
@@ -14172,7 +14134,7 @@
         <v>77.906999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>6</v>
       </c>
@@ -14183,20 +14145,20 @@
         <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E8" s="19">
         <v>146.41900000000001</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <f t="shared" si="0"/>
         <v>139.19999999999999</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <f t="shared" si="1"/>
         <v>147.36000000000001</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <f t="shared" si="2"/>
         <v>159.69499999999999</v>
       </c>
@@ -14210,7 +14172,7 @@
       </c>
       <c r="K8" s="30"/>
       <c r="AB8" s="25" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="AC8" s="25">
         <v>214.8</v>
@@ -14222,7 +14184,7 @@
         <v>194.358</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>7</v>
       </c>
@@ -14233,20 +14195,20 @@
         <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E9" s="19">
         <v>80.412000000000006</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <f t="shared" si="0"/>
         <v>83.1</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <f t="shared" si="1"/>
         <v>83.156000000000006</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="24">
         <f t="shared" si="2"/>
         <v>77.906999999999996</v>
       </c>
@@ -14260,7 +14222,7 @@
       </c>
       <c r="K9" s="30"/>
       <c r="AB9" s="25" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AC9" s="25">
         <v>146.80000000000001</v>
@@ -14272,7 +14234,7 @@
         <v>160.72399999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>8</v>
       </c>
@@ -14283,20 +14245,20 @@
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E10" s="19">
         <v>84.224000000000004</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <f t="shared" si="0"/>
         <v>83.1</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <f t="shared" si="1"/>
         <v>83.156000000000006</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="24">
         <f t="shared" si="2"/>
         <v>77.906999999999996</v>
       </c>
@@ -14310,7 +14272,7 @@
       </c>
       <c r="K10" s="30"/>
       <c r="AB10" s="25" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="AC10" s="25">
         <v>145.19999999999999</v>
@@ -14322,7 +14284,7 @@
         <v>148.06800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>9</v>
       </c>
@@ -14333,20 +14295,20 @@
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E11" s="19">
         <v>210.857</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <f t="shared" si="0"/>
         <v>214.8</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="24">
         <f t="shared" si="1"/>
         <v>203.65199999999999</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="24">
         <f t="shared" si="2"/>
         <v>194.358</v>
       </c>
@@ -14360,7 +14322,7 @@
       </c>
       <c r="K11" s="30"/>
       <c r="AB11" s="25" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="AC11" s="25">
         <v>294.5</v>
@@ -14372,7 +14334,7 @@
         <v>248.32</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>10</v>
       </c>
@@ -14383,20 +14345,20 @@
         <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E12" s="19">
         <v>221.751</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <f t="shared" si="0"/>
         <v>214.8</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <f t="shared" si="1"/>
         <v>203.65199999999999</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="24">
         <f t="shared" si="2"/>
         <v>194.358</v>
       </c>
@@ -14410,7 +14372,7 @@
       </c>
       <c r="K12" s="30"/>
       <c r="AB12" s="25" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="AC12" s="25">
         <v>220</v>
@@ -14422,7 +14384,7 @@
         <v>218.35</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
         <v>11</v>
       </c>
@@ -14433,20 +14395,20 @@
         <v>6</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E13" s="19">
         <v>138.05500000000001</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <f t="shared" si="0"/>
         <v>145.19999999999999</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <f t="shared" si="1"/>
         <v>150.12799999999999</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="24">
         <f t="shared" si="2"/>
         <v>148.06800000000001</v>
       </c>
@@ -14460,7 +14422,7 @@
       </c>
       <c r="K13" s="30"/>
       <c r="AB13" s="25" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="AC13" s="25">
         <v>87.8</v>
@@ -14472,7 +14434,7 @@
         <v>90.738</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
         <v>12</v>
       </c>
@@ -14483,20 +14445,20 @@
         <v>6</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E14" s="19">
         <v>139.65</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <f t="shared" si="0"/>
         <v>145.19999999999999</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <f t="shared" si="1"/>
         <v>150.12799999999999</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="24">
         <f t="shared" si="2"/>
         <v>148.06800000000001</v>
       </c>
@@ -14510,7 +14472,7 @@
       </c>
       <c r="K14" s="30"/>
       <c r="AB14" s="25" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AC14" s="25">
         <v>152.19999999999999</v>
@@ -14522,7 +14484,7 @@
         <v>162.19399999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21">
         <v>13</v>
       </c>
@@ -14533,20 +14495,20 @@
         <v>6</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E15" s="19">
         <v>204.79</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <f t="shared" si="1"/>
         <v>211.18700000000001</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="24">
         <f t="shared" si="2"/>
         <v>218.35</v>
       </c>
@@ -14560,7 +14522,7 @@
       </c>
       <c r="K15" s="30"/>
       <c r="AB15" s="25" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AC15" s="25">
         <v>27</v>
@@ -14572,7 +14534,7 @@
         <v>29.193000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
         <v>14</v>
       </c>
@@ -14583,20 +14545,20 @@
         <v>6</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E16" s="19">
         <v>203.97</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="24">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="24">
         <f t="shared" si="1"/>
         <v>211.18700000000001</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="24">
         <f t="shared" si="2"/>
         <v>218.35</v>
       </c>
@@ -14610,7 +14572,7 @@
       </c>
       <c r="K16" s="30"/>
       <c r="AB16" s="25" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AC16" s="25">
         <v>28</v>
@@ -14622,7 +14584,7 @@
         <v>27.876000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>15</v>
       </c>
@@ -14633,20 +14595,20 @@
         <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E17" s="19">
         <v>155.63</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <f t="shared" si="0"/>
         <v>152.19999999999999</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="24">
         <f t="shared" si="1"/>
         <v>159.29599999999999</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="24">
         <f t="shared" si="2"/>
         <v>162.19399999999999</v>
       </c>
@@ -14660,7 +14622,7 @@
       </c>
       <c r="K17" s="30"/>
       <c r="AB17" s="25" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="AC17" s="25">
         <v>122.8</v>
@@ -14672,7 +14634,7 @@
         <v>126.816</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <v>16</v>
       </c>
@@ -14683,20 +14645,20 @@
         <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E18" s="19">
         <v>154.761</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <f t="shared" si="0"/>
         <v>152.19999999999999</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="24">
         <f t="shared" si="1"/>
         <v>159.29599999999999</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="24">
         <f t="shared" si="2"/>
         <v>162.19399999999999</v>
       </c>
@@ -14710,7 +14672,7 @@
       </c>
       <c r="K18" s="30"/>
       <c r="AB18" s="25" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="AC18" s="25">
         <v>182</v>
@@ -14722,7 +14684,7 @@
         <v>179.50399999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <v>17</v>
       </c>
@@ -14733,20 +14695,20 @@
         <v>6</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E19" s="19">
         <v>27.986999999999998</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="24">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="24">
         <f t="shared" si="1"/>
         <v>30.683</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="24">
         <f t="shared" si="2"/>
         <v>29.193000000000001</v>
       </c>
@@ -14760,7 +14722,7 @@
       </c>
       <c r="K19" s="30"/>
       <c r="AB19" s="25" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="AC19" s="25">
         <v>130.19999999999999</v>
@@ -14772,7 +14734,7 @@
         <v>145.71600000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <v>18</v>
       </c>
@@ -14783,20 +14745,20 @@
         <v>6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E20" s="19">
         <v>32.78</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="24">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="24">
         <f t="shared" si="1"/>
         <v>29.15</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="24">
         <f t="shared" si="2"/>
         <v>27.876000000000001</v>
       </c>
@@ -14810,7 +14772,7 @@
       </c>
       <c r="K20" s="30"/>
       <c r="AB20" s="25" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="AC20" s="25">
         <v>79.099999999999994</v>
@@ -14822,7 +14784,7 @@
         <v>83.097999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <v>19</v>
       </c>
@@ -14833,21 +14795,21 @@
         <v>6</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E21" s="19">
         <v>131.9</v>
       </c>
-      <c r="F21" s="25">
-        <f>VLOOKUP(D21,$AB$3:$AE$19,2,FALSE)</f>
+      <c r="F21" s="24">
+        <f t="shared" si="0"/>
         <v>122.8</v>
       </c>
-      <c r="G21" s="25">
-        <f>VLOOKUP(D21,$AB$3:$AE$19,3,FALSE)</f>
+      <c r="G21" s="24">
+        <f t="shared" si="1"/>
         <v>132.54599999999999</v>
       </c>
-      <c r="H21" s="32">
-        <f>VLOOKUP(D21,$AB$3:$AE$19,4,FALSE)</f>
+      <c r="H21" s="24">
+        <f t="shared" si="2"/>
         <v>126.816</v>
       </c>
       <c r="I21" s="32">
@@ -14860,7 +14822,7 @@
       </c>
       <c r="K21" s="30"/>
       <c r="AB21" s="25" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="AC21" s="25">
         <v>27.7</v>
@@ -14872,7 +14834,7 @@
         <v>29.16</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <v>20</v>
       </c>
@@ -14883,21 +14845,21 @@
         <v>6</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E22" s="19">
         <v>186.28</v>
       </c>
-      <c r="F22" s="25">
-        <f>VLOOKUP(D22,$AB$3:$AE$19,2,FALSE)</f>
+      <c r="F22" s="24">
+        <f t="shared" si="0"/>
         <v>182</v>
       </c>
-      <c r="G22" s="25">
-        <f>VLOOKUP(D22,$AB$3:$AE$19,3,FALSE)</f>
+      <c r="G22" s="24">
+        <f t="shared" si="1"/>
         <v>192.45400000000001</v>
       </c>
-      <c r="H22" s="32">
-        <f>VLOOKUP(D22,$AB$3:$AE$19,4,FALSE)</f>
+      <c r="H22" s="24">
+        <f t="shared" si="2"/>
         <v>179.50399999999999</v>
       </c>
       <c r="I22" s="32">
@@ -14910,7 +14872,7 @@
       </c>
       <c r="K22" s="30"/>
       <c r="AB22" s="25" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="AC22" s="25">
         <v>296.89999999999998</v>
@@ -14922,7 +14884,7 @@
         <v>260.553</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <v>21</v>
       </c>
@@ -14930,24 +14892,24 @@
         <v>45581</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E23" s="19">
         <v>138.99</v>
       </c>
-      <c r="F23" s="25">
-        <f t="shared" ref="F23" si="5">VLOOKUP(D23,$AB$3:$AE$19,2,FALSE)</f>
+      <c r="F23" s="24">
+        <f t="shared" si="0"/>
         <v>130.19999999999999</v>
       </c>
-      <c r="G23" s="25">
-        <f t="shared" ref="G23" si="6">VLOOKUP(D23,$AB$3:$AE$19,3,FALSE)</f>
+      <c r="G23" s="24">
+        <f t="shared" si="1"/>
         <v>145.625</v>
       </c>
-      <c r="H23" s="32">
-        <f t="shared" ref="H23" si="7">VLOOKUP(D23,$AB$3:$AE$19,4,FALSE)</f>
+      <c r="H23" s="24">
+        <f t="shared" si="2"/>
         <v>145.71600000000001</v>
       </c>
       <c r="I23" s="32">
@@ -14960,7 +14922,7 @@
       </c>
       <c r="K23" s="30"/>
       <c r="AB23" s="25" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="AC23" s="25">
         <v>127.7</v>
@@ -14972,7 +14934,7 @@
         <v>125.15600000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <v>22</v>
       </c>
@@ -14980,24 +14942,24 @@
         <v>45595</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="E24" s="19">
         <v>126.61</v>
       </c>
-      <c r="F24" s="25">
-        <f>VLOOKUP(D24,$AB$3:$AE$27,2,FALSE)</f>
+      <c r="F24" s="24">
+        <f t="shared" si="0"/>
         <v>130.19999999999999</v>
       </c>
-      <c r="G24" s="25">
-        <f>VLOOKUP(D24,$AB$3:$AE$27,3,FALSE)</f>
+      <c r="G24" s="24">
+        <f t="shared" si="1"/>
         <v>145.625</v>
       </c>
-      <c r="H24" s="32">
-        <f>VLOOKUP(D24,$AB$3:$AE$27,4,FALSE)</f>
+      <c r="H24" s="24">
+        <f t="shared" si="2"/>
         <v>145.71600000000001</v>
       </c>
       <c r="I24" s="32">
@@ -15010,7 +14972,7 @@
       </c>
       <c r="K24" s="30"/>
       <c r="AB24" s="25" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="AC24" s="25">
         <v>184.7</v>
@@ -15022,7 +14984,7 @@
         <v>188.233</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <v>23</v>
       </c>
@@ -15030,24 +14992,24 @@
         <v>45609</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E25" s="19">
         <v>26.29</v>
       </c>
-      <c r="F25" s="25">
-        <f t="shared" ref="F25:F49" si="8">VLOOKUP(D25,$AB$3:$AE$27,2,FALSE)</f>
+      <c r="F25" s="24">
+        <f t="shared" si="0"/>
         <v>27.7</v>
       </c>
-      <c r="G25" s="25">
-        <f t="shared" ref="G25:G49" si="9">VLOOKUP(D25,$AB$3:$AE$27,3,FALSE)</f>
+      <c r="G25" s="24">
+        <f t="shared" si="1"/>
         <v>29.385999999999999</v>
       </c>
-      <c r="H25" s="32">
-        <f t="shared" ref="H25:H49" si="10">VLOOKUP(D25,$AB$3:$AE$27,4,FALSE)</f>
+      <c r="H25" s="24">
+        <f t="shared" si="2"/>
         <v>29.16</v>
       </c>
       <c r="I25" s="32">
@@ -15060,7 +15022,7 @@
       </c>
       <c r="K25" s="30"/>
       <c r="AB25" s="25" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="AC25" s="25">
         <v>73.3</v>
@@ -15072,7 +15034,7 @@
         <v>80.403000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <v>24</v>
       </c>
@@ -15080,24 +15042,24 @@
         <v>45624</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E26" s="19">
         <v>253.29499999999999</v>
       </c>
-      <c r="F26" s="25">
-        <f t="shared" si="8"/>
+      <c r="F26" s="24">
+        <f t="shared" si="0"/>
         <v>296.89999999999998</v>
       </c>
-      <c r="G26" s="25">
-        <f t="shared" si="9"/>
+      <c r="G26" s="24">
+        <f t="shared" si="1"/>
         <v>263.85399999999998</v>
       </c>
-      <c r="H26" s="32">
-        <f t="shared" si="10"/>
+      <c r="H26" s="24">
+        <f t="shared" si="2"/>
         <v>260.553</v>
       </c>
       <c r="I26" s="32">
@@ -15110,7 +15072,7 @@
       </c>
       <c r="K26" s="30"/>
       <c r="AB26" s="25" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AC26" s="25">
         <v>124.5</v>
@@ -15122,7 +15084,7 @@
         <v>126.58</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <v>25</v>
       </c>
@@ -15133,21 +15095,21 @@
         <v>6</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E27" s="19">
         <v>119.7</v>
       </c>
-      <c r="F27" s="25">
-        <f t="shared" si="8"/>
+      <c r="F27" s="24">
+        <f t="shared" si="0"/>
         <v>127.7</v>
       </c>
-      <c r="G27" s="25">
-        <f t="shared" si="9"/>
+      <c r="G27" s="24">
+        <f t="shared" si="1"/>
         <v>131.09700000000001</v>
       </c>
-      <c r="H27" s="32">
-        <f t="shared" si="10"/>
+      <c r="H27" s="24">
+        <f t="shared" si="2"/>
         <v>125.15600000000001</v>
       </c>
       <c r="I27" s="32">
@@ -15160,13 +15122,13 @@
       </c>
       <c r="K27" s="30"/>
       <c r="AB27" s="32" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="AC27" s="25"/>
       <c r="AD27" s="39"/>
       <c r="AE27" s="25"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="16">
         <v>45659</v>
@@ -15175,19 +15137,19 @@
         <v>6</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E28" s="19"/>
-      <c r="F28" s="25">
-        <f t="shared" si="8"/>
+      <c r="F28" s="24">
+        <f t="shared" si="0"/>
         <v>73.3</v>
       </c>
-      <c r="G28" s="25">
-        <f t="shared" si="9"/>
+      <c r="G28" s="24">
+        <f t="shared" si="1"/>
         <v>82.98</v>
       </c>
-      <c r="H28" s="32">
-        <f t="shared" si="10"/>
+      <c r="H28" s="24">
+        <f t="shared" si="2"/>
         <v>80.403000000000006</v>
       </c>
       <c r="I28" s="32">
@@ -15199,10 +15161,10 @@
         <v>-100</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="AB28" s="25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC28" s="25">
         <v>10.6</v>
@@ -15214,7 +15176,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
         <v>27</v>
       </c>
@@ -15225,21 +15187,21 @@
         <v>6</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E29" s="19">
         <v>128.16999999999999</v>
       </c>
-      <c r="F29" s="25">
-        <f t="shared" si="8"/>
+      <c r="F29" s="24">
+        <f t="shared" si="0"/>
         <v>127.7</v>
       </c>
-      <c r="G29" s="25">
-        <f t="shared" si="9"/>
+      <c r="G29" s="24">
+        <f t="shared" si="1"/>
         <v>131.09700000000001</v>
       </c>
-      <c r="H29" s="32">
-        <f t="shared" si="10"/>
+      <c r="H29" s="24">
+        <f t="shared" si="2"/>
         <v>125.15600000000001</v>
       </c>
       <c r="I29" s="32">
@@ -15252,7 +15214,7 @@
       </c>
       <c r="K29" s="30"/>
       <c r="AB29" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC29" s="31">
         <v>29.8</v>
@@ -15264,7 +15226,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <v>28</v>
       </c>
@@ -15275,21 +15237,21 @@
         <v>6</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E30" s="19">
         <v>75.41</v>
       </c>
-      <c r="F30" s="25">
-        <f t="shared" si="8"/>
+      <c r="F30" s="24">
+        <f t="shared" si="0"/>
         <v>73.3</v>
       </c>
-      <c r="G30" s="25">
-        <f t="shared" si="9"/>
+      <c r="G30" s="24">
+        <f t="shared" si="1"/>
         <v>82.98</v>
       </c>
-      <c r="H30" s="32">
-        <f t="shared" si="10"/>
+      <c r="H30" s="24">
+        <f t="shared" si="2"/>
         <v>80.403000000000006</v>
       </c>
       <c r="I30" s="32">
@@ -15301,8 +15263,20 @@
         <v>-9.1226801638949215</v>
       </c>
       <c r="K30" s="30"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AB30" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC30" s="31">
+        <v>14</v>
+      </c>
+      <c r="AD30" s="40">
+        <v>14.1</v>
+      </c>
+      <c r="AE30" s="31">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <v>29</v>
       </c>
@@ -15313,21 +15287,21 @@
         <v>6</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E31" s="19">
         <v>75.7</v>
       </c>
-      <c r="F31" s="25">
-        <f t="shared" si="8"/>
+      <c r="F31" s="24">
+        <f t="shared" si="0"/>
         <v>73.3</v>
       </c>
-      <c r="G31" s="25">
-        <f t="shared" si="9"/>
+      <c r="G31" s="24">
+        <f t="shared" si="1"/>
         <v>82.98</v>
       </c>
-      <c r="H31" s="32">
-        <f t="shared" si="10"/>
+      <c r="H31" s="24">
+        <f t="shared" si="2"/>
         <v>80.403000000000006</v>
       </c>
       <c r="I31" s="32">
@@ -15340,7 +15314,7 @@
       </c>
       <c r="K31" s="30"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>30</v>
       </c>
@@ -15351,21 +15325,21 @@
         <v>6</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E32" s="19">
         <v>79.45</v>
       </c>
-      <c r="F32" s="25">
-        <f t="shared" si="8"/>
+      <c r="F32" s="24">
+        <f t="shared" si="0"/>
         <v>73.3</v>
       </c>
-      <c r="G32" s="25">
-        <f t="shared" si="9"/>
+      <c r="G32" s="24">
+        <f t="shared" si="1"/>
         <v>82.98</v>
       </c>
-      <c r="H32" s="32">
-        <f t="shared" si="10"/>
+      <c r="H32" s="24">
+        <f t="shared" si="2"/>
         <v>80.403000000000006</v>
       </c>
       <c r="I32" s="32">
@@ -15378,7 +15352,7 @@
       </c>
       <c r="K32" s="30"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21">
         <v>31</v>
       </c>
@@ -15389,21 +15363,21 @@
         <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E33" s="19">
         <v>29.62</v>
       </c>
-      <c r="F33" s="25">
-        <f t="shared" si="8"/>
+      <c r="F33" s="24">
+        <f t="shared" si="0"/>
         <v>27.7</v>
       </c>
-      <c r="G33" s="25">
-        <f t="shared" si="9"/>
+      <c r="G33" s="24">
+        <f t="shared" si="1"/>
         <v>29.385999999999999</v>
       </c>
-      <c r="H33" s="32">
-        <f t="shared" si="10"/>
+      <c r="H33" s="24">
+        <f t="shared" si="2"/>
         <v>29.16</v>
       </c>
       <c r="I33" s="32">
@@ -15416,7 +15390,7 @@
       </c>
       <c r="K33" s="30"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
         <v>32</v>
       </c>
@@ -15427,21 +15401,21 @@
         <v>6</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E34" s="19">
         <v>78.06</v>
       </c>
-      <c r="F34" s="25">
-        <f t="shared" si="8"/>
+      <c r="F34" s="24">
+        <f t="shared" si="0"/>
         <v>73.3</v>
       </c>
-      <c r="G34" s="25">
-        <f t="shared" si="9"/>
+      <c r="G34" s="24">
+        <f t="shared" si="1"/>
         <v>82.98</v>
       </c>
-      <c r="H34" s="32">
-        <f t="shared" si="10"/>
+      <c r="H34" s="24">
+        <f t="shared" si="2"/>
         <v>80.403000000000006</v>
       </c>
       <c r="I34" s="32">
@@ -15454,7 +15428,7 @@
       </c>
       <c r="K34" s="30"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <v>33</v>
       </c>
@@ -15462,24 +15436,24 @@
         <v>45792</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E35" s="19">
         <v>119.4</v>
       </c>
-      <c r="F35" s="25">
-        <f t="shared" si="8"/>
+      <c r="F35" s="24">
+        <f t="shared" si="0"/>
         <v>127.7</v>
       </c>
-      <c r="G35" s="25">
-        <f t="shared" si="9"/>
+      <c r="G35" s="24">
+        <f t="shared" si="1"/>
         <v>131.09700000000001</v>
       </c>
-      <c r="H35" s="32">
-        <f t="shared" si="10"/>
+      <c r="H35" s="24">
+        <f t="shared" si="2"/>
         <v>125.15600000000001</v>
       </c>
       <c r="I35" s="32">
@@ -15492,7 +15466,7 @@
       </c>
       <c r="K35" s="30"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
         <v>34</v>
       </c>
@@ -15503,21 +15477,21 @@
         <v>6</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E36" s="19">
         <v>11.15</v>
       </c>
-      <c r="F36" s="25">
-        <f>VLOOKUP(D36,$AB$3:$AE$28,2,FALSE)</f>
+      <c r="F36" s="24">
+        <f t="shared" si="0"/>
         <v>10.6</v>
       </c>
-      <c r="G36" s="25">
-        <f>VLOOKUP(D36,$AB$3:$AE$28,3,FALSE)</f>
+      <c r="G36" s="24">
+        <f t="shared" si="1"/>
         <v>11.2</v>
       </c>
-      <c r="H36" s="32">
-        <f>VLOOKUP(D36,$AB$3:$AE$28,4,FALSE)</f>
+      <c r="H36" s="24">
+        <f t="shared" si="2"/>
         <v>10.9</v>
       </c>
       <c r="I36" s="32">
@@ -15530,7 +15504,7 @@
       </c>
       <c r="K36" s="30"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
         <v>35</v>
       </c>
@@ -15541,21 +15515,21 @@
         <v>6</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E37" s="19">
         <v>26.7</v>
       </c>
-      <c r="F37" s="25">
-        <f>VLOOKUP(D37,$AB$3:$AE$29,2,FALSE)</f>
+      <c r="F37" s="24">
+        <f t="shared" si="0"/>
         <v>29.8</v>
       </c>
-      <c r="G37" s="25">
-        <f>VLOOKUP(D37,$AB$3:$AE$29,3,FALSE)</f>
+      <c r="G37" s="24">
+        <f t="shared" si="1"/>
         <v>32.4</v>
       </c>
-      <c r="H37" s="32">
-        <f>VLOOKUP(D37,$AB$3:$AE$29,4,FALSE)</f>
+      <c r="H37" s="24">
+        <f t="shared" si="2"/>
         <v>32.9</v>
       </c>
       <c r="I37" s="32">
@@ -15568,50 +15542,60 @@
       </c>
       <c r="K37" s="30"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="25" t="e">
-        <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G38" s="25" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H38" s="32" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I38" s="32" t="e">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21">
+        <v>36</v>
+      </c>
+      <c r="B38" s="16">
+        <v>45868</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="19">
+        <v>13.5</v>
+      </c>
+      <c r="F38" s="24">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G38" s="24">
+        <f t="shared" si="1"/>
+        <v>14.1</v>
+      </c>
+      <c r="H38" s="24">
+        <f t="shared" si="2"/>
+        <v>14.2</v>
+      </c>
+      <c r="I38" s="32">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J38" s="25" t="e">
+        <v>-4.9295774647887276</v>
+      </c>
+      <c r="J38" s="25">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>-4.2553191489361684</v>
       </c>
       <c r="K38" s="30"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
       <c r="B39" s="27"/>
       <c r="C39" s="28"/>
       <c r="D39" s="29"/>
       <c r="E39" s="27"/>
-      <c r="F39" s="25" t="e">
-        <f t="shared" si="8"/>
+      <c r="F39" s="24" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="G39" s="25" t="e">
-        <f t="shared" si="9"/>
+      <c r="G39" s="24" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H39" s="32" t="e">
-        <f t="shared" si="10"/>
+      <c r="H39" s="24" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I39" s="32" t="e">
@@ -15624,22 +15608,22 @@
       </c>
       <c r="K39" s="30"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
       <c r="B40" s="27"/>
       <c r="C40" s="28"/>
       <c r="D40" s="29"/>
       <c r="E40" s="27"/>
-      <c r="F40" s="25" t="e">
-        <f t="shared" si="8"/>
+      <c r="F40" s="24" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="G40" s="25" t="e">
-        <f t="shared" si="9"/>
+      <c r="G40" s="24" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H40" s="32" t="e">
-        <f t="shared" si="10"/>
+      <c r="H40" s="24" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I40" s="32" t="e">
@@ -15652,22 +15636,22 @@
       </c>
       <c r="K40" s="30"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
       <c r="B41" s="27"/>
       <c r="C41" s="28"/>
       <c r="D41" s="29"/>
       <c r="E41" s="27"/>
-      <c r="F41" s="25" t="e">
-        <f t="shared" si="8"/>
+      <c r="F41" s="24" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="G41" s="25" t="e">
-        <f t="shared" si="9"/>
+      <c r="G41" s="24" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H41" s="32" t="e">
-        <f t="shared" si="10"/>
+      <c r="H41" s="24" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I41" s="32" t="e">
@@ -15680,22 +15664,22 @@
       </c>
       <c r="K41" s="30"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
       <c r="B42" s="27"/>
       <c r="C42" s="28"/>
       <c r="D42" s="29"/>
       <c r="E42" s="27"/>
-      <c r="F42" s="25" t="e">
-        <f t="shared" si="8"/>
+      <c r="F42" s="24" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="G42" s="25" t="e">
-        <f t="shared" si="9"/>
+      <c r="G42" s="24" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H42" s="32" t="e">
-        <f t="shared" si="10"/>
+      <c r="H42" s="24" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I42" s="32" t="e">
@@ -15708,22 +15692,22 @@
       </c>
       <c r="K42" s="30"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="26"/>
       <c r="B43" s="27"/>
       <c r="C43" s="28"/>
       <c r="D43" s="29"/>
       <c r="E43" s="27"/>
-      <c r="F43" s="25" t="e">
-        <f t="shared" si="8"/>
+      <c r="F43" s="24" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="G43" s="25" t="e">
-        <f t="shared" si="9"/>
+      <c r="G43" s="24" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H43" s="32" t="e">
-        <f t="shared" si="10"/>
+      <c r="H43" s="24" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I43" s="32" t="e">
@@ -15736,22 +15720,22 @@
       </c>
       <c r="K43" s="30"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26"/>
       <c r="B44" s="27"/>
       <c r="C44" s="28"/>
       <c r="D44" s="29"/>
       <c r="E44" s="27"/>
-      <c r="F44" s="25" t="e">
-        <f t="shared" si="8"/>
+      <c r="F44" s="24" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="G44" s="25" t="e">
-        <f t="shared" si="9"/>
+      <c r="G44" s="24" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H44" s="32" t="e">
-        <f t="shared" si="10"/>
+      <c r="H44" s="24" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I44" s="32" t="e">
@@ -15764,22 +15748,22 @@
       </c>
       <c r="K44" s="30"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="26"/>
       <c r="B45" s="27"/>
       <c r="C45" s="28"/>
       <c r="D45" s="29"/>
       <c r="E45" s="27"/>
-      <c r="F45" s="25" t="e">
-        <f t="shared" si="8"/>
+      <c r="F45" s="24" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="G45" s="25" t="e">
-        <f t="shared" si="9"/>
+      <c r="G45" s="24" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H45" s="32" t="e">
-        <f t="shared" si="10"/>
+      <c r="H45" s="24" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I45" s="32" t="e">
@@ -15792,22 +15776,22 @@
       </c>
       <c r="K45" s="30"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26"/>
       <c r="B46" s="27"/>
       <c r="C46" s="28"/>
       <c r="D46" s="29"/>
       <c r="E46" s="27"/>
-      <c r="F46" s="25" t="e">
-        <f t="shared" si="8"/>
+      <c r="F46" s="24" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="G46" s="25" t="e">
-        <f t="shared" si="9"/>
+      <c r="G46" s="24" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H46" s="32" t="e">
-        <f t="shared" si="10"/>
+      <c r="H46" s="24" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I46" s="32" t="e">
@@ -15820,22 +15804,22 @@
       </c>
       <c r="K46" s="30"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26"/>
       <c r="B47" s="27"/>
       <c r="C47" s="28"/>
       <c r="D47" s="29"/>
       <c r="E47" s="27"/>
-      <c r="F47" s="25" t="e">
-        <f t="shared" si="8"/>
+      <c r="F47" s="24" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="G47" s="25" t="e">
-        <f t="shared" si="9"/>
+      <c r="G47" s="24" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H47" s="32" t="e">
-        <f t="shared" si="10"/>
+      <c r="H47" s="24" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I47" s="32" t="e">
@@ -15848,22 +15832,22 @@
       </c>
       <c r="K47" s="30"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="26"/>
       <c r="B48" s="27"/>
       <c r="C48" s="28"/>
       <c r="D48" s="29"/>
       <c r="E48" s="27"/>
-      <c r="F48" s="25" t="e">
-        <f t="shared" si="8"/>
+      <c r="F48" s="24" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="G48" s="25" t="e">
-        <f t="shared" si="9"/>
+      <c r="G48" s="24" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H48" s="32" t="e">
-        <f t="shared" si="10"/>
+      <c r="H48" s="24" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I48" s="32" t="e">
@@ -15882,16 +15866,16 @@
       <c r="C49" s="28"/>
       <c r="D49" s="29"/>
       <c r="E49" s="27"/>
-      <c r="F49" s="25" t="e">
-        <f t="shared" si="8"/>
+      <c r="F49" s="24" t="e">
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="G49" s="25" t="e">
-        <f t="shared" si="9"/>
+      <c r="G49" s="24" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="H49" s="32" t="e">
-        <f t="shared" si="10"/>
+      <c r="H49" s="24" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="I49" s="32" t="e">
@@ -15906,6 +15890,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="F1:F2"/>
@@ -15914,14 +15906,6 @@
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15940,6 +15924,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100171B93B5FBCD4B49847373C2915E7916" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9b147b7bfe1b5ebf9de8d946fbffe46">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bbae4d8a-5369-4991-91d8-007229455ff9" xmlns:ns3="184dda3b-6708-4ad8-b920-a09dda3c5f6c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0def0ecf32156ba6bf50a1f9280751e9" ns2:_="" ns3:_="">
     <xsd:import namespace="bbae4d8a-5369-4991-91d8-007229455ff9"/>
@@ -16134,15 +16127,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B93D66C-3DE9-428B-88BA-02C6509A78AF}">
   <ds:schemaRefs>
@@ -16155,6 +16139,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E5D27BD-8292-4C81-9DAA-D38E4150EAB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0309FFA7-B53D-48F6-AFD6-1F2E6B814B0C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16173,14 +16165,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E5D27BD-8292-4C81-9DAA-D38E4150EAB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{37c354b2-85b0-47f5-b222-07b48d774ee3}" enabled="0" method="" siteId="{37c354b2-85b0-47f5-b222-07b48d774ee3}" removed="1"/>
